--- a/biology/Botanique/Caloncoba/Caloncoba.xlsx
+++ b/biology/Botanique/Caloncoba/Caloncoba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caloncoba Gilg est un genre de plantes à fleurs de la famille des Achariaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (12 janvier 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (12 janvier 2018) :
 Caloncoba brevipes (Stapf) Gilg
 Caloncoba crepiniana (De Wild. &amp; Th. Dur.) Gilg
 Caloncoba dusenii Gilg
@@ -525,13 +539,13 @@
 Caloncoba subtomentosa Gilg
 Caloncoba suffruticosa (Milne-Redhead) Exell &amp; Sleum.
 Caloncoba welwitschii (Oliv.) Gilg
-Selon ITIS      (12 janvier 2018)[3] :
+Selon ITIS      (12 janvier 2018) :
 Caloncoba echinata (Oliv.) Gilg
-Selon NCBI  (12 janvier 2018)[4] :
+Selon NCBI  (12 janvier 2018) :
 Caloncoba echinata
 Caloncoba lophocarpa
 Caloncoba welwitschii
-Selon The Plant List            (12 janvier 2018)[5] :
+Selon The Plant List            (12 janvier 2018) :
 Caloncoba brevipes (Stapf) Gilg
 Caloncoba crepiniana (De Wild. &amp; T.Durand) Gilg
 Caloncoba echinata (Oliv.) Gilg
@@ -542,7 +556,7 @@
 Caloncoba subtomentosa Gilg
 Caloncoba suffruticosa (Milne-Redh.) Exell &amp; Sleumer
 Caloncoba welwitschii (Oliv.) Gilg
-Selon Tropicos                                           (12 janvier 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (12 janvier 2018) (Attention liste brute contenant possiblement des synonymes) :
 Caloncoba angolensis Exell &amp; Sleumer
 Caloncoba brevipes (Stapf) Gilg
 Caloncoba cauliflora Sleumer
